--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-L-R.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-L-R.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431002C4-39CA-49BD-B875-86EF5A1AF671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F03C665-DB1C-4F24-94B1-BB06ED810225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82485" yWindow="375" windowWidth="31200" windowHeight="21360" activeTab="9" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="2235" yWindow="2205" windowWidth="23055" windowHeight="19110" activeTab="9" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="PAPA" sheetId="10" r:id="rId9"/>
     <sheet name="PEPINO" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="35">
   <si>
     <t>Данные из: SARH - Consumos aparentes de productos agricolas, 1925-1982 (Econotecnia Agricola т.7 №9 Septiembre 1983)</t>
   </si>
@@ -148,6 +143,9 @@
   <si>
     <t>поскольку национальное потребление было бы равно нулю.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Promedio 1973/74 </t>
+  </si>
 </sst>
 </file>
 
@@ -222,10 +220,10 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,14 +544,14 @@
       <selection activeCell="J4" sqref="J4:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -569,15 +567,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I75" sqref="I75"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -585,17 +583,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -629,7 +627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -659,7 +657,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -681,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -703,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -725,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -747,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -769,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -794,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -816,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -838,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -860,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -882,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -904,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -929,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -951,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -973,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -995,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -1017,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -1039,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1064,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -1086,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -1108,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -1130,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -1152,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -1174,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -1199,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -1221,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -1243,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -1265,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -1287,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -1309,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1334,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -1356,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -1378,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -1400,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -1422,7 +1420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -1444,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -1469,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -1491,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -1513,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -1535,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -1557,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -1579,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -1604,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -1626,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -1648,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -1670,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -1692,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -1714,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -1739,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -1761,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -1783,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -1805,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -1827,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -1849,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -1874,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -1896,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -1918,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -1940,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -1974,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -2008,9 +2006,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B63" s="8">
         <v>9316</v>
@@ -2045,7 +2043,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -2079,7 +2077,7 @@
         <v>-11731</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -2109,7 +2107,7 @@
         <v>-5866</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -2143,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -2177,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -2211,7 +2209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -2248,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -2282,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -2312,7 +2310,7 @@
         <v>-86778</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -2346,44 +2344,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>27</v>
       </c>
       <c r="J75" s="6"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>33</v>
       </c>
@@ -2405,12 +2403,12 @@
       <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2418,17 +2416,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -2462,7 +2460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -2492,7 +2490,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -2514,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -2536,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -2558,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -2580,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -2602,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -2627,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -2649,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -2671,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -2693,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -2715,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -2737,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -2762,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -2784,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -2806,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -2828,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -2850,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -2872,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -2897,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -2919,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -2941,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -2963,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -2985,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -3007,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -3032,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -3054,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -3076,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -3098,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -3120,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -3142,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -3167,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -3189,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -3211,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -3233,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -3255,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -3277,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -3302,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -3324,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -3346,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -3368,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -3390,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -3412,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -3437,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -3459,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -3481,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -3503,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -3525,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -3547,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -3572,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -3594,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -3616,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -3638,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -3660,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -3682,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -3707,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -3729,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -3751,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -3773,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -3795,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -3817,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -3842,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -3864,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -3886,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -3908,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -3930,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -3952,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -3977,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -3999,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -4021,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -4043,13 +4041,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -4069,12 +4067,12 @@
       <selection pane="bottomLeft" activeCell="F64" sqref="F64:F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -4082,17 +4080,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -4126,7 +4124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -4156,7 +4154,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -4178,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -4200,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -4222,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -4244,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -4266,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -4291,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -4313,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -4335,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -4357,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -4379,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -4401,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -4426,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -4448,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -4470,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -4492,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -4514,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -4536,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -4561,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -4583,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -4605,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -4627,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -4649,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -4671,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -4696,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -4718,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -4740,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -4762,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -4784,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -4806,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -4831,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -4853,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -4875,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -4897,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -4919,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -4941,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -4966,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -4988,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -5010,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -5032,7 +5030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -5054,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -5076,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -5101,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -5123,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -5145,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -5167,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -5189,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -5211,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -5236,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -5258,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -5280,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -5302,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -5324,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -5346,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -5371,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -5393,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -5415,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -5437,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -5459,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -5481,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -5506,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -5540,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -5574,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -5608,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -5642,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -5676,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -5713,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -5747,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -5781,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -5815,13 +5813,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -5841,12 +5839,12 @@
       <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -5854,17 +5852,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -5898,7 +5896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -5928,7 +5926,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -5962,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -5996,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -6030,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -6064,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -6098,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -6135,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -6167,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -6199,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -6231,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -6263,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -6295,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -6330,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -6362,7 +6360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -6394,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -6426,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -6458,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -6492,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -6529,7 +6527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -6563,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -6597,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -6631,7 +6629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -6663,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -6697,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -6736,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -6768,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -6802,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -6838,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -6872,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -6908,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -6947,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -6981,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -7015,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -7049,7 +7047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -7083,7 +7081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -7117,7 +7115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -7154,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -7188,7 +7186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -7222,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -7258,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -7292,7 +7290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -7328,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -7367,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -7403,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -7437,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -7473,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -7509,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -7543,7 +7541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -7582,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -7618,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -7654,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -7690,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -7726,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -7762,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -7801,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -7835,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -7871,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -7907,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -7943,7 +7941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -7979,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -8018,7 +8016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -8052,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -8086,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -8120,7 +8118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -8154,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -8188,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -8225,7 +8223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -8259,7 +8257,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -8293,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -8327,13 +8325,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -8353,12 +8351,12 @@
       <selection pane="bottomLeft" activeCell="Q57" sqref="Q57:X57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -8366,17 +8364,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -8410,7 +8408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -8440,7 +8438,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -8472,7 +8470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -8504,7 +8502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -8540,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -8572,7 +8570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -8604,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -8643,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -8675,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -8707,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -8739,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -8771,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -8805,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -8842,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -8874,7 +8872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -8906,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -8938,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -8970,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -9002,7 +9000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -9037,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -9069,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -9101,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -9135,7 +9133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -9169,7 +9167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -9203,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -9240,7 +9238,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -9274,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -9308,7 +9306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -9340,7 +9338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -9372,7 +9370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -9404,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -9441,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -9473,7 +9471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -9505,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -9537,7 +9535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -9569,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -9601,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -9636,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -9668,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -9700,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -9732,7 +9730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -9764,7 +9762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -9798,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -9835,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -9869,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -9901,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -9933,7 +9931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -9967,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -10001,7 +9999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -10038,7 +10036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -10072,7 +10070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -10106,7 +10104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -10140,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -10174,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -10208,7 +10206,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -10250,7 +10248,7 @@
       <c r="U57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -10286,7 +10284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -10320,7 +10318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -10352,7 +10350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -10384,7 +10382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -10418,7 +10416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -10457,7 +10455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -10489,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -10521,7 +10519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -10553,7 +10551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -10585,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -10617,7 +10615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -10652,7 +10650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -10684,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -10716,7 +10714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -10748,13 +10746,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -10774,14 +10772,14 @@
       <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
-    <col min="4" max="4" width="10.3125" customWidth="1"/>
-    <col min="9" max="9" width="9.62890625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -10789,17 +10787,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -10833,7 +10831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -10863,7 +10861,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -10899,7 +10897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -10935,7 +10933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -10971,7 +10969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -11007,7 +11005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -11043,7 +11041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -11082,7 +11080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -11118,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -11152,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -11188,7 +11186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -11222,7 +11220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -11258,7 +11256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -11297,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -11333,7 +11331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -11369,7 +11367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -11405,7 +11403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -11439,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -11475,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -11514,7 +11512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -11548,7 +11546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -11584,7 +11582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -11620,7 +11618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -11656,7 +11654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -11692,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -11731,7 +11729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -11765,7 +11763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -11801,7 +11799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -11837,7 +11835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -11873,7 +11871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -11909,7 +11907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -11948,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -11982,7 +11980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -12016,7 +12014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -12050,7 +12048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -12084,7 +12082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -12120,7 +12118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -12159,7 +12157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -12195,7 +12193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -12231,7 +12229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -12267,7 +12265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -12301,7 +12299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -12337,7 +12335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -12376,7 +12374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -12412,7 +12410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -12448,7 +12446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -12484,7 +12482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -12520,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -12556,7 +12554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -12595,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -12631,7 +12629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -12667,7 +12665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -12703,7 +12701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -12739,7 +12737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -12775,7 +12773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -12814,7 +12812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -12850,7 +12848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -12886,7 +12884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -12922,7 +12920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -12958,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -12994,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -13033,7 +13031,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -13069,7 +13067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -13105,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -13141,7 +13139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -13177,7 +13175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -13213,7 +13211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -13252,7 +13250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -13288,7 +13286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -13324,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -13360,13 +13358,13 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -13386,12 +13384,12 @@
       <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -13399,17 +13397,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -13443,7 +13441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -13473,7 +13471,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -13505,7 +13503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -13537,7 +13535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -13571,7 +13569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -13605,7 +13603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -13639,7 +13637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -13676,7 +13674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -13710,7 +13708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -13744,7 +13742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -13778,7 +13776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -13812,7 +13810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -13846,7 +13844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -13883,7 +13881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -13917,7 +13915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -13951,7 +13949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -13985,7 +13983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -14019,7 +14017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -14053,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -14090,7 +14088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -14124,7 +14122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -14158,7 +14156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -14192,7 +14190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -14226,7 +14224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -14260,7 +14258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -14297,7 +14295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -14331,7 +14329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -14365,7 +14363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -14399,7 +14397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -14433,7 +14431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -14467,7 +14465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -14504,7 +14502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -14538,7 +14536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -14572,7 +14570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -14606,7 +14604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -14640,7 +14638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -14674,7 +14672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -14711,7 +14709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -14745,7 +14743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -14779,7 +14777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -14813,7 +14811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -14847,7 +14845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -14881,7 +14879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -14918,7 +14916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -14952,7 +14950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -14986,7 +14984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -15020,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -15054,7 +15052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -15088,7 +15086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -15125,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -15159,7 +15157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -15193,7 +15191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -15227,7 +15225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -15261,7 +15259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -15295,7 +15293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -15332,7 +15330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -15366,7 +15364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -15400,7 +15398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -15434,7 +15432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -15468,7 +15466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -15502,7 +15500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -15539,7 +15537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -15573,7 +15571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -15607,7 +15605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -15641,7 +15639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -15675,7 +15673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -15685,7 +15683,7 @@
       <c r="C68" s="3">
         <v>13792</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="12">
         <v>353476</v>
       </c>
       <c r="E68" s="3"/>
@@ -15709,7 +15707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -15749,7 +15747,7 @@
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -15783,7 +15781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -15817,7 +15815,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -15851,13 +15849,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -15877,12 +15875,12 @@
       <selection pane="bottomLeft" activeCell="J64" sqref="J64:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -15890,17 +15888,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -15934,7 +15932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -15964,7 +15962,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -15986,7 +15984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -16008,7 +16006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -16030,7 +16028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -16052,7 +16050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -16074,7 +16072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -16099,7 +16097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -16121,7 +16119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -16143,7 +16141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -16165,7 +16163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -16187,7 +16185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -16209,7 +16207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -16234,7 +16232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -16256,7 +16254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -16278,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -16300,7 +16298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -16322,7 +16320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -16344,7 +16342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -16369,7 +16367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -16391,7 +16389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -16413,7 +16411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -16435,7 +16433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -16457,7 +16455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -16479,7 +16477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -16504,7 +16502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -16526,7 +16524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -16548,7 +16546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -16570,7 +16568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -16592,7 +16590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -16614,7 +16612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -16639,7 +16637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -16661,7 +16659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -16683,7 +16681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -16705,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -16727,7 +16725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -16749,7 +16747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -16774,7 +16772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -16796,7 +16794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -16818,7 +16816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -16840,7 +16838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -16862,7 +16860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -16884,7 +16882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -16909,7 +16907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -16931,7 +16929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -16953,7 +16951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -16975,7 +16973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -16997,7 +16995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -17019,7 +17017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -17044,7 +17042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -17066,7 +17064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -17088,7 +17086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -17110,7 +17108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -17132,7 +17130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -17154,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -17179,7 +17177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -17201,7 +17199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -17223,7 +17221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -17245,7 +17243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -17267,7 +17265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -17289,7 +17287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -17314,7 +17312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -17348,7 +17346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -17382,7 +17380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -17416,7 +17414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -17450,7 +17448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -17484,7 +17482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -17521,7 +17519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -17555,7 +17553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -17589,7 +17587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -17623,13 +17621,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -17649,12 +17647,12 @@
       <selection pane="bottomLeft" activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -17662,17 +17660,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -17706,7 +17704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -17736,7 +17734,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -17772,7 +17770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -17808,7 +17806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -17844,7 +17842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -17880,7 +17878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -17916,7 +17914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -17955,7 +17953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -17965,7 +17963,7 @@
       <c r="C10" s="3">
         <v>3575</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>45578</v>
       </c>
       <c r="E10" s="3"/>
@@ -17991,7 +17989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -18027,7 +18025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -18063,7 +18061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -18099,7 +18097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -18133,7 +18131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -18175,7 +18173,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -18209,7 +18207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -18245,7 +18243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -18281,7 +18279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -18315,7 +18313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -18349,7 +18347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -18388,7 +18386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -18424,7 +18422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -18458,7 +18456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -18494,7 +18492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -18530,7 +18528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -18566,7 +18564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -18605,7 +18603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -18639,7 +18637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -18673,7 +18671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -18707,7 +18705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -18743,7 +18741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -18779,7 +18777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -18818,7 +18816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -18852,7 +18850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -18886,7 +18884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -18920,7 +18918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -18954,7 +18952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -18988,7 +18986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -19028,7 +19026,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -19062,7 +19060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -19096,7 +19094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -19130,7 +19128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -19164,7 +19162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -19198,7 +19196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -19235,7 +19233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -19269,7 +19267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -19305,7 +19303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -19341,7 +19339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -19377,7 +19375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -19413,7 +19411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -19452,7 +19450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -19488,7 +19486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -19524,7 +19522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -19560,7 +19558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -19596,7 +19594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -19632,7 +19630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -19671,7 +19669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -19707,7 +19705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -19743,7 +19741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -19779,7 +19777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -19815,7 +19813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -19851,7 +19849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -19890,7 +19888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -19926,7 +19924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -19962,7 +19960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -19998,7 +19996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -20034,7 +20032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -20070,7 +20068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -20109,7 +20107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -20145,7 +20143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -20181,7 +20179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -20217,14 +20215,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F73" s="3"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-L-R.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-L-R.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F03C665-DB1C-4F24-94B1-BB06ED810225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D08B816-7632-4886-AAAB-6EF684B24222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2205" windowWidth="23055" windowHeight="19110" activeTab="9" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="77235" yWindow="990" windowWidth="31200" windowHeight="21360" activeTab="6" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="PAPA" sheetId="10" r:id="rId9"/>
     <sheet name="PEPINO" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -203,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -224,6 +229,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,14 +550,14 @@
       <selection activeCell="J4" sqref="J4:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -565,17 +571,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30C318A-BFBC-494F-8A62-C99522C07C7F}">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -593,7 +599,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -627,7 +633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -657,7 +663,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -679,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -701,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -723,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -745,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -792,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -814,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -836,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -858,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -880,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -902,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -949,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -971,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -993,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -1084,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -1128,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -1197,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -1241,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -1307,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1332,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -1467,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -1489,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -1533,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -1646,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -1668,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -1737,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -1759,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -1781,7 +1787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -1803,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -1825,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -1847,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -1872,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -1894,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -1916,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -1938,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -1972,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>34</v>
       </c>
@@ -2043,7 +2049,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>-11731</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>-5866</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -2141,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -2175,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -2246,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -2280,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -2310,7 +2316,7 @@
         <v>-86778</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -2344,44 +2350,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4" t="s">
         <v>27</v>
       </c>
       <c r="J75" s="6"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>33</v>
       </c>
@@ -2403,12 +2409,12 @@
       <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2426,7 +2432,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -2490,7 +2496,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -2512,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -2534,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -2556,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -2578,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -2600,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -2625,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -2647,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -2669,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -2691,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -2713,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -2735,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -2760,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -2782,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -2804,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -2826,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -2848,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -2870,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -2895,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -2917,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -2939,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -2961,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -2983,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -3005,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -3030,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -3052,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -3074,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -3096,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -3118,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -3140,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -3165,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -3187,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -3209,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -3231,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -3275,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -3300,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -3322,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -3344,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -3366,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -3388,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -3410,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -3435,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -3457,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -3479,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -3501,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -3545,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -3570,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -3592,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -3614,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -3636,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -3658,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -3705,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -3727,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -3749,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -3771,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -3793,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -3815,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -3840,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -3862,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -3884,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -3906,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -3928,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -3950,7 +3956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -3975,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -3997,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -4019,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -4041,13 +4047,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -4067,12 +4073,12 @@
       <selection pane="bottomLeft" activeCell="F64" sqref="F64:F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -4090,7 +4096,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -4124,7 +4130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -4154,7 +4160,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -4176,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -4198,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -4220,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -4242,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -4264,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -4289,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -4311,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -4333,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -4355,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -4377,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -4399,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -4424,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -4446,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -4468,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -4490,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -4512,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -4534,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -4559,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -4581,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -4603,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -4625,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -4647,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -4669,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -4694,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -4716,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -4738,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -4760,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -4782,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -4804,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -4829,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -4851,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -4873,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -4895,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -4917,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -4939,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -4964,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -4986,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -5008,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -5030,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -5052,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -5074,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -5099,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -5121,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -5143,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -5165,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -5187,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -5209,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -5234,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -5256,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -5278,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -5300,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -5322,7 +5328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -5344,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -5369,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -5391,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -5413,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -5435,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -5457,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -5479,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -5504,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -5538,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -5572,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -5606,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -5640,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -5674,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -5711,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -5745,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -5779,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -5813,13 +5819,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -5836,15 +5842,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <selection pane="bottomLeft" activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -5862,7 +5868,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -5896,7 +5902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -5926,7 +5932,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -5960,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -5994,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -6028,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -6062,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -6096,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -6133,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -6165,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -6197,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -6229,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -6261,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -6293,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -6328,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -6360,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -6392,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -6424,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -6456,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -6490,7 +6496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -6527,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -6561,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -6595,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -6629,7 +6635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -6661,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -6695,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -6734,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -6766,7 +6772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -6800,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -6836,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -6870,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -6906,7 +6912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -6945,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -6979,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -7013,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -7047,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -7081,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -7115,7 +7121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -7152,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -7186,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -7220,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -7256,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -7290,7 +7296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -7326,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -7365,7 +7371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -7401,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -7435,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -7471,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -7507,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -7541,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -7580,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -7616,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -7652,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -7676,8 +7682,8 @@
       <c r="I54" s="3">
         <v>4803</v>
       </c>
-      <c r="J54" s="6">
-        <v>1.105</v>
+      <c r="J54" s="14">
+        <v>0.105</v>
       </c>
       <c r="M54" s="2">
         <f t="shared" si="0"/>
@@ -7688,7 +7694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -7724,7 +7730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -7760,7 +7766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -7799,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -7833,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -7869,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -7905,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -7941,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -7977,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -8016,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -8050,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -8084,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -8118,7 +8124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -8152,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -8186,7 +8192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -8223,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -8257,7 +8263,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -8291,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -8325,13 +8331,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -8351,12 +8357,12 @@
       <selection pane="bottomLeft" activeCell="Q57" sqref="Q57:X57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -8374,7 +8380,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -8408,7 +8414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -8438,7 +8444,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -8470,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -8502,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -8538,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -8570,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -8602,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -8641,7 +8647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -8673,7 +8679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -8705,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -8737,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -8769,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -8803,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -8840,7 +8846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -8872,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -8904,7 +8910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -8936,7 +8942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -8968,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -9000,7 +9006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -9035,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -9067,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -9099,7 +9105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -9133,7 +9139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -9167,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -9201,7 +9207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -9238,7 +9244,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -9272,7 +9278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -9306,7 +9312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -9338,7 +9344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -9370,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -9402,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -9439,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -9471,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -9503,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -9535,7 +9541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -9567,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -9599,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -9634,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -9666,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -9698,7 +9704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -9730,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -9762,7 +9768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -9796,7 +9802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -9833,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -9867,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -9899,7 +9905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -9931,7 +9937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -9965,7 +9971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -9999,7 +10005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -10036,7 +10042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -10070,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -10104,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -10138,7 +10144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -10172,7 +10178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -10206,7 +10212,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -10248,7 +10254,7 @@
       <c r="U57" s="3"/>
       <c r="X57" s="3"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -10284,7 +10290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -10318,7 +10324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -10350,7 +10356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -10382,7 +10388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -10416,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -10455,7 +10461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -10487,7 +10493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -10519,7 +10525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -10551,7 +10557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -10583,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -10615,7 +10621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -10650,7 +10656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -10682,7 +10688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -10714,7 +10720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -10746,13 +10752,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -10768,18 +10774,18 @@
   <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="4" max="4" width="10.26171875" customWidth="1"/>
+    <col min="9" max="9" width="9.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -10797,7 +10803,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -10831,7 +10837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -10861,7 +10867,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -10897,7 +10903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -10933,7 +10939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -10969,7 +10975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -11005,7 +11011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -11041,7 +11047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -11080,7 +11086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -11105,7 +11111,7 @@
         <v>1456077</v>
       </c>
       <c r="J10" s="6">
-        <v>37.776000000000003</v>
+        <v>87.775999999999996</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="0"/>
@@ -11116,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -11150,7 +11156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -11186,7 +11192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -11220,7 +11226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -11256,7 +11262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -11295,7 +11301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -11331,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -11367,7 +11373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -11403,7 +11409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -11437,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -11473,7 +11479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -11512,7 +11518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -11546,7 +11552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -11582,7 +11588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -11618,7 +11624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -11654,7 +11660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -11690,7 +11696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -11729,7 +11735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -11763,7 +11769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -11799,7 +11805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -11835,7 +11841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -11871,7 +11877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -11907,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -11946,7 +11952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -11980,7 +11986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -12014,7 +12020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -12048,7 +12054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -12082,7 +12088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -12118,7 +12124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -12157,7 +12163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -12193,7 +12199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -12229,7 +12235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -12265,7 +12271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -12299,7 +12305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -12335,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -12374,7 +12380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -12410,7 +12416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -12446,7 +12452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -12482,7 +12488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -12518,7 +12524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -12554,7 +12560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -12593,7 +12599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -12629,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -12665,7 +12671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -12701,7 +12707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -12737,7 +12743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -12773,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -12812,7 +12818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -12848,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -12884,7 +12890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -12920,7 +12926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -12956,7 +12962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -12992,7 +12998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -13031,7 +13037,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -13067,7 +13073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -13103,7 +13109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -13139,7 +13145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -13175,7 +13181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -13211,7 +13217,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -13250,7 +13256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -13286,7 +13292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -13322,7 +13328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -13358,13 +13364,13 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -13379,17 +13385,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4F2F16-B9EB-448C-BAE5-89A958FADD73}">
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -13407,7 +13413,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -13441,7 +13447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -13471,7 +13477,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -13503,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -13535,7 +13541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -13569,7 +13575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -13603,7 +13609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -13626,7 +13632,7 @@
         <v>5416</v>
       </c>
       <c r="J8" s="6">
-        <v>6.3319999999999999</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
@@ -13637,7 +13643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -13674,7 +13680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -13708,7 +13714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -13742,7 +13748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -13776,7 +13782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -13810,7 +13816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -13844,7 +13850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -13881,7 +13887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -13915,7 +13921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -13949,7 +13955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -13983,7 +13989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -14017,7 +14023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -14051,7 +14057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -14088,7 +14094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -14122,7 +14128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -14156,7 +14162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -14190,7 +14196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -14224,7 +14230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -14258,7 +14264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -14295,7 +14301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -14329,7 +14335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -14363,7 +14369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -14397,7 +14403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -14431,7 +14437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -14465,7 +14471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -14502,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -14536,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -14570,7 +14576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -14604,7 +14610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -14638,7 +14644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -14672,7 +14678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -14709,7 +14715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -14743,7 +14749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -14777,7 +14783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -14811,7 +14817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -14845,7 +14851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -14879,7 +14885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -14916,7 +14922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -14950,7 +14956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -14984,7 +14990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -15018,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -15052,7 +15058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -15086,7 +15092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -15123,7 +15129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -15157,7 +15163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -15191,7 +15197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -15225,7 +15231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -15259,7 +15265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -15293,7 +15299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -15330,7 +15336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -15364,7 +15370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -15398,7 +15404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -15432,7 +15438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -15466,7 +15472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -15500,7 +15506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -15537,7 +15543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -15571,7 +15577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -15605,7 +15611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -15639,7 +15645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -15673,7 +15679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -15707,7 +15713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -15747,7 +15753,7 @@
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -15781,7 +15787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -15815,7 +15821,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -15849,13 +15855,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -15875,12 +15881,12 @@
       <selection pane="bottomLeft" activeCell="J64" sqref="J64:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -15898,7 +15904,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -15932,7 +15938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -15962,7 +15968,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -15984,7 +15990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -16006,7 +16012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -16028,7 +16034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -16050,7 +16056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -16072,7 +16078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -16097,7 +16103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -16119,7 +16125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -16141,7 +16147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -16163,7 +16169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -16185,7 +16191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -16207,7 +16213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -16232,7 +16238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -16254,7 +16260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -16276,7 +16282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -16298,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -16320,7 +16326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -16342,7 +16348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -16367,7 +16373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -16389,7 +16395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -16411,7 +16417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -16433,7 +16439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -16455,7 +16461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -16477,7 +16483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -16502,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -16524,7 +16530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -16546,7 +16552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -16568,7 +16574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -16590,7 +16596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -16612,7 +16618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -16637,7 +16643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -16659,7 +16665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -16681,7 +16687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -16703,7 +16709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -16725,7 +16731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -16747,7 +16753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -16772,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -16794,7 +16800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -16816,7 +16822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -16838,7 +16844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -16860,7 +16866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -16882,7 +16888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -16907,7 +16913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -16929,7 +16935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -16951,7 +16957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -16973,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -16995,7 +17001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -17017,7 +17023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -17042,7 +17048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -17064,7 +17070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -17086,7 +17092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -17108,7 +17114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -17130,7 +17136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -17152,7 +17158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -17177,7 +17183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -17199,7 +17205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -17221,7 +17227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -17243,7 +17249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -17265,7 +17271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -17287,7 +17293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -17312,7 +17318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -17346,7 +17352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -17380,7 +17386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -17414,7 +17420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -17448,7 +17454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -17482,7 +17488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -17519,7 +17525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -17553,7 +17559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -17587,7 +17593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -17621,13 +17627,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -17647,12 +17653,12 @@
       <selection pane="bottomLeft" activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -17670,7 +17676,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -17704,7 +17710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -17734,7 +17740,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -17770,7 +17776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -17806,7 +17812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -17842,7 +17848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -17878,7 +17884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -17914,7 +17920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -17953,7 +17959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -17989,7 +17995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -18025,7 +18031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -18061,7 +18067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -18097,7 +18103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -18131,7 +18137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -18173,7 +18179,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -18207,7 +18213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -18243,7 +18249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -18279,7 +18285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -18313,7 +18319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -18347,7 +18353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -18386,7 +18392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -18422,7 +18428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -18456,7 +18462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -18492,7 +18498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -18528,7 +18534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -18564,7 +18570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -18603,7 +18609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -18637,7 +18643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -18671,7 +18677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -18705,7 +18711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -18741,7 +18747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -18777,7 +18783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -18816,7 +18822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -18850,7 +18856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -18884,7 +18890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -18918,7 +18924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -18952,7 +18958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -18986,7 +18992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -19026,7 +19032,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -19060,7 +19066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -19094,7 +19100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -19128,7 +19134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -19162,7 +19168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -19196,7 +19202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -19233,7 +19239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -19267,7 +19273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -19303,7 +19309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -19339,7 +19345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -19375,7 +19381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -19411,7 +19417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -19450,7 +19456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -19486,7 +19492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -19522,7 +19528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -19558,7 +19564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -19594,7 +19600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -19630,7 +19636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -19669,7 +19675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -19705,7 +19711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -19741,7 +19747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -19777,7 +19783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -19813,7 +19819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -19849,7 +19855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -19888,7 +19894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -19924,7 +19930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -19960,7 +19966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -19996,7 +20002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -20032,7 +20038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -20068,7 +20074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -20107,7 +20113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -20143,7 +20149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -20179,7 +20185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -20215,14 +20221,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="F73" s="3"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-L-R.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-L-R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D08B816-7632-4886-AAAB-6EF684B24222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC29AE9-4AD4-4EBC-8BDC-92AAFF585871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77235" yWindow="990" windowWidth="31200" windowHeight="21360" activeTab="6" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="76890" yWindow="1905" windowWidth="36870" windowHeight="21360" activeTab="9" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="41">
   <si>
     <t>Данные из: SARH - Consumos aparentes de productos agricolas, 1925-1982 (Econotecnia Agricola т.7 №9 Septiembre 1983)</t>
   </si>
@@ -151,6 +151,24 @@
   <si>
     <t xml:space="preserve">Promedio 1973/74 </t>
   </si>
+  <si>
+    <t>причины расхождения неясны</t>
+  </si>
+  <si>
+    <t>DGE</t>
+  </si>
+  <si>
+    <t>UNPH</t>
+  </si>
+  <si>
+    <t>US EMB</t>
+  </si>
+  <si>
+    <t>В 1976 экспорт:</t>
+  </si>
+  <si>
+    <t>действительные значение неясны</t>
+  </si>
 </sst>
 </file>
 
@@ -226,10 +244,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,11 +587,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30C318A-BFBC-494F-8A62-C99522C07C7F}">
-  <dimension ref="A1:O83"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q72" sqref="Q72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -589,10 +607,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -1674,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -1696,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -1718,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -1743,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -1765,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -1787,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -1809,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -1831,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -1853,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -1878,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -1900,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -1922,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -1944,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -1978,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -2012,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>34</v>
       </c>
@@ -2049,7 +2067,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -2082,8 +2100,11 @@
         <f t="shared" si="1"/>
         <v>-11731</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -2098,11 +2119,13 @@
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="3">
-        <v>98802</v>
+      <c r="G65" s="12">
+        <v>76363</v>
       </c>
       <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
+      <c r="I65" s="12">
+        <v>16573</v>
+      </c>
       <c r="J65" s="6"/>
       <c r="M65" s="2">
         <f t="shared" si="0"/>
@@ -2110,10 +2133,13 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>-5866</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -2147,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -2181,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -2215,7 +2241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -2251,8 +2277,9 @@
         <f t="shared" ref="O69:O72" si="3">D69-G69+F69-I69</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="R69" s="3"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -2286,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -2305,8 +2332,12 @@
         <v>159775</v>
       </c>
       <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="6"/>
+      <c r="I71" s="12">
+        <v>0</v>
+      </c>
+      <c r="J71" s="13">
+        <v>0</v>
+      </c>
       <c r="M71" s="2">
         <f t="shared" si="2"/>
         <v>-19.81600000000617</v>
@@ -2315,8 +2346,11 @@
         <f t="shared" si="3"/>
         <v>-86778</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -2350,45 +2384,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4" t="s">
         <v>27</v>
       </c>
       <c r="J75" s="6"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83">
+        <v>98802</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84">
+        <v>76363</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85">
+        <v>89004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2422,10 +2485,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -4086,10 +4149,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -5858,10 +5921,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -7682,7 +7745,7 @@
       <c r="I54" s="3">
         <v>4803</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J54" s="13">
         <v>0.105</v>
       </c>
       <c r="M54" s="2">
@@ -8350,11 +8413,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446825F0-E467-4999-9C14-13C75C7C25BE}">
-  <dimension ref="A1:X75"/>
+  <dimension ref="A1:AB75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q57" sqref="Q57:X57"/>
+      <selection pane="bottomLeft" activeCell="U57" sqref="U57:AB57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8370,10 +8433,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -9408,7 +9471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -9445,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -9465,8 +9528,8 @@
       <c r="I34" s="3">
         <v>53021</v>
       </c>
-      <c r="J34" s="6">
-        <v>2.3159999999999998</v>
+      <c r="J34" s="13">
+        <v>2.0529999999999999</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" si="0"/>
@@ -9476,8 +9539,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="R34" s="6"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -9509,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -9541,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -9573,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -9605,7 +9669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -9625,8 +9689,8 @@
       <c r="I39" s="8">
         <v>47479</v>
       </c>
-      <c r="J39" s="9">
-        <v>1.1180000000000001</v>
+      <c r="J39" s="13">
+        <v>1.7410000000000001</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
@@ -9639,8 +9703,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="R39" s="6"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -9672,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -9704,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -9736,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -9768,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -9802,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -9839,7 +9904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -9873,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -9905,7 +9970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -9937,7 +10002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -9971,7 +10036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -10005,7 +10070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -10042,7 +10107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -10076,7 +10141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -10110,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -10144,7 +10209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -10178,7 +10243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -10211,8 +10276,11 @@
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -10248,13 +10316,19 @@
         <f t="shared" si="1"/>
         <v>199</v>
       </c>
-      <c r="Q57" s="3"/>
+      <c r="Q57" t="s">
+        <v>35</v>
+      </c>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
       <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
       <c r="X57" s="3"/>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y57" s="3"/>
+      <c r="AB57" s="3"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -10290,7 +10364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -10324,7 +10398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -10356,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -10388,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -10422,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -10461,7 +10535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -10793,10 +10867,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -13385,7 +13459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4F2F16-B9EB-448C-BAE5-89A958FADD73}">
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
@@ -13403,10 +13477,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -15894,10 +15968,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -17666,10 +17740,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-L-R.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-L-R.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC29AE9-4AD4-4EBC-8BDC-92AAFF585871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756FD700-3C30-45D2-BC77-A536E3CF619A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76890" yWindow="1905" windowWidth="36870" windowHeight="21360" activeTab="9" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="2835" yWindow="825" windowWidth="23355" windowHeight="19110" activeTab="5" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="PAPA" sheetId="10" r:id="rId9"/>
     <sheet name="PEPINO" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -568,14 +563,14 @@
       <selection activeCell="J4" sqref="J4:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -589,17 +584,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30C318A-BFBC-494F-8A62-C99522C07C7F}">
   <dimension ref="A1:R89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q72" sqref="Q72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -617,7 +612,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -651,7 +646,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -681,7 +676,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -703,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -725,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -747,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -769,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -791,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -816,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -838,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -860,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -882,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -904,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -926,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -951,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -973,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -995,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -1017,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -1039,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -1061,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1086,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -1108,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -1130,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -1152,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -1174,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -1196,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -1221,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -1243,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -1265,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -1287,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -1309,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -1331,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1356,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -1378,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -1400,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -1422,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -1444,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -1466,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -1491,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -1513,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -1535,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -1557,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -1579,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -1601,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -1626,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -1648,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -1670,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -1692,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -1714,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -1736,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -1761,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -1783,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -1805,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -1827,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -1849,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -1871,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -1896,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -1918,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -1940,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -1962,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -1996,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -2030,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>34</v>
       </c>
@@ -2067,7 +2062,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -2104,7 +2099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -2139,7 +2134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -2173,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -2207,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -2241,7 +2236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -2279,7 +2274,7 @@
       </c>
       <c r="R69" s="3"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -2313,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -2350,7 +2345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -2384,44 +2379,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>27</v>
       </c>
       <c r="J75" s="6"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>36</v>
       </c>
@@ -2429,7 +2424,7 @@
         <v>98802</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>37</v>
       </c>
@@ -2437,7 +2432,7 @@
         <v>76363</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>38</v>
       </c>
@@ -2445,12 +2440,12 @@
         <v>89004</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>33</v>
       </c>
@@ -2472,12 +2467,12 @@
       <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -2495,7 +2490,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -2529,7 +2524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -2559,7 +2554,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -2581,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -2603,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -2625,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -2647,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -2669,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -2694,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -2716,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -2738,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -2760,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -2782,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -2804,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -2829,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -2851,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -2873,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -2895,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -2917,7 +2912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -2939,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -2964,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -2986,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -3008,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -3030,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -3052,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -3074,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -3099,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -3121,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -3143,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -3165,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -3187,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -3209,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -3234,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -3256,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -3278,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -3300,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -3322,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -3344,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -3369,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -3391,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -3413,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -3435,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -3457,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -3479,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -3504,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -3526,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -3548,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -3570,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -3592,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -3614,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -3639,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -3661,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -3683,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -3705,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -3727,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -3749,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -3774,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -3796,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -3818,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -3840,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -3862,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -3884,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -3909,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -3931,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -3953,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -3975,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -3997,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -4019,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -4044,7 +4039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -4066,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -4088,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -4110,13 +4105,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -4136,12 +4131,12 @@
       <selection pane="bottomLeft" activeCell="F64" sqref="F64:F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -4159,7 +4154,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -4193,7 +4188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -4223,7 +4218,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -4245,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -4267,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -4289,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -4311,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -4333,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -4358,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -4380,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -4402,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -4424,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -4446,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -4468,7 +4463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -4493,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -4515,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -4537,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -4559,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -4581,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -4603,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -4628,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -4650,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -4672,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -4694,7 +4689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -4716,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -4738,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -4763,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -4785,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -4807,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -4829,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -4851,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -4873,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -4898,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -4920,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -4942,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -4964,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -4986,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -5008,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -5033,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -5055,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -5077,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -5099,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -5121,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -5143,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -5168,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -5190,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -5212,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -5234,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -5256,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -5278,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -5303,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -5325,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -5347,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -5369,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -5391,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -5413,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -5438,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -5460,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -5482,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -5504,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -5526,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -5548,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -5573,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -5607,7 +5602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -5641,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -5675,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -5709,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -5743,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -5780,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -5814,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -5848,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -5882,13 +5877,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -5908,12 +5903,12 @@
       <selection pane="bottomLeft" activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -5931,7 +5926,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -5965,7 +5960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -5995,7 +5990,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -6029,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -6063,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -6097,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -6131,7 +6126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -6165,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -6202,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -6234,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -6266,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -6298,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -6330,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -6362,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -6397,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -6429,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -6461,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -6493,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -6525,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -6559,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -6596,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -6630,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -6664,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -6698,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -6730,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -6764,7 +6759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -6803,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -6835,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -6869,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -6905,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -6939,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -6975,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -7014,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -7048,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -7082,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -7116,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -7150,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -7184,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -7221,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -7255,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -7289,7 +7284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -7325,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -7359,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -7395,7 +7390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -7434,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -7470,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -7504,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -7540,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -7576,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -7610,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -7649,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -7685,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -7721,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -7757,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -7793,7 +7788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -7829,7 +7824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -7868,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -7902,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -7938,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -7974,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -8010,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -8046,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -8085,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -8119,7 +8114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -8153,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -8187,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -8221,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -8255,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -8292,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -8326,7 +8321,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -8360,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -8394,13 +8389,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -8420,12 +8415,12 @@
       <selection pane="bottomLeft" activeCell="U57" sqref="U57:AB57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -8443,7 +8438,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -8477,7 +8472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -8507,7 +8502,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -8539,7 +8534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -8571,7 +8566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -8607,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -8639,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -8671,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -8710,7 +8705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -8742,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -8774,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -8806,7 +8801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -8838,7 +8833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -8872,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -8909,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -8941,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -8973,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -9005,7 +9000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -9037,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -9069,7 +9064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -9104,7 +9099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -9136,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -9168,7 +9163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -9202,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -9236,7 +9231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -9270,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -9307,7 +9302,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -9341,7 +9336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -9375,7 +9370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -9407,7 +9402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -9439,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -9471,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -9508,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -9541,7 +9536,7 @@
       </c>
       <c r="R34" s="6"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -9573,7 +9568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -9605,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -9637,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -9669,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -9705,7 +9700,7 @@
       </c>
       <c r="R39" s="6"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -9737,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -9769,7 +9764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -9801,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -9833,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -9867,7 +9862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -9904,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -9938,7 +9933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -9970,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -10002,7 +9997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -10036,7 +10031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -10070,7 +10065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -10107,7 +10102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -10141,7 +10136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -10175,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -10209,7 +10204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -10243,7 +10238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -10280,7 +10275,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -10328,7 +10323,7 @@
       <c r="Y57" s="3"/>
       <c r="AB57" s="3"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -10364,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -10398,7 +10393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -10430,7 +10425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -10462,7 +10457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -10496,7 +10491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -10535,7 +10530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -10567,7 +10562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -10599,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -10631,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -10663,7 +10658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -10695,7 +10690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -10730,7 +10725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -10762,7 +10757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -10794,7 +10789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -10826,13 +10821,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -10845,21 +10840,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C82D0F3-F230-4EAD-B756-DF6D12ECFB10}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R76" sqref="R76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
-    <col min="4" max="4" width="10.26171875" customWidth="1"/>
-    <col min="9" max="9" width="9.578125" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -10877,7 +10872,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -10911,7 +10906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -10941,7 +10936,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -10977,7 +10972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -11013,7 +11008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -11049,7 +11044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -11085,7 +11080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -11121,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -11160,7 +11155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -11196,7 +11191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -11230,7 +11225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -11266,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -11300,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -11336,7 +11331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -11375,7 +11370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -11411,7 +11406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -11447,7 +11442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -11483,7 +11478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -11517,7 +11512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -11553,7 +11548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -11592,7 +11587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -11626,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -11662,7 +11657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -11698,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -11734,7 +11729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -11770,7 +11765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -11809,7 +11804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -11843,7 +11838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -11879,7 +11874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -11915,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -11951,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -11987,7 +11982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -12026,7 +12021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -12060,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -12094,7 +12089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -12128,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -12162,7 +12157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -12198,7 +12193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -12237,7 +12232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -12273,7 +12268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -12309,7 +12304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -12345,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -12379,7 +12374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -12415,7 +12410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -12454,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -12490,7 +12485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -12526,7 +12521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -12562,7 +12557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -12598,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -12634,7 +12629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -12673,7 +12668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -12709,7 +12704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -12745,7 +12740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -12781,7 +12776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -12817,7 +12812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -12853,7 +12848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -12892,7 +12887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -12928,7 +12923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -12964,7 +12959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -13000,7 +12995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -13036,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -13072,7 +13067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -13111,7 +13106,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -13147,7 +13142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -13183,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -13219,7 +13214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -13255,7 +13250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -13291,7 +13286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -13326,11 +13321,11 @@
       </c>
       <c r="N69" s="10"/>
       <c r="O69" s="10">
-        <f t="shared" ref="O69:O72" si="3">D69-G69+F69-I69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="O69:O76" si="3">D69-G69+F69-I69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -13366,7 +13361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -13402,7 +13397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -13438,14 +13433,101 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="J73" s="6"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="J74" s="6"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="J75" s="6"/>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>1983</v>
+      </c>
+      <c r="D73" s="3">
+        <v>13061208</v>
+      </c>
+      <c r="F73" s="3">
+        <v>4632448</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I73" s="3">
+        <v>17692356</v>
+      </c>
+      <c r="J73" s="6">
+        <v>236</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>1984</v>
+      </c>
+      <c r="D74" s="3">
+        <v>12788809</v>
+      </c>
+      <c r="F74" s="3">
+        <v>2444756</v>
+      </c>
+      <c r="G74">
+        <v>352</v>
+      </c>
+      <c r="I74" s="3">
+        <v>15233213</v>
+      </c>
+      <c r="J74" s="6">
+        <v>198</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>1985</v>
+      </c>
+      <c r="D75" s="3">
+        <v>14103454</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1724221</v>
+      </c>
+      <c r="G75" s="3">
+        <v>9111</v>
+      </c>
+      <c r="I75" s="3">
+        <v>15818564</v>
+      </c>
+      <c r="J75" s="6">
+        <v>196</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>1986</v>
+      </c>
+      <c r="D76" s="3">
+        <v>13600000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2600000</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>16200000</v>
+      </c>
+      <c r="J76">
+        <v>196</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13464,12 +13546,12 @@
       <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -13487,7 +13569,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -13521,7 +13603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -13551,7 +13633,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -13583,7 +13665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -13615,7 +13697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -13649,7 +13731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -13683,7 +13765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -13717,7 +13799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -13754,7 +13836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -13788,7 +13870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -13822,7 +13904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -13856,7 +13938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -13890,7 +13972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -13924,7 +14006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -13961,7 +14043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -13995,7 +14077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -14029,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -14063,7 +14145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -14097,7 +14179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -14131,7 +14213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -14168,7 +14250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -14202,7 +14284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -14236,7 +14318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -14270,7 +14352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -14304,7 +14386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -14338,7 +14420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -14375,7 +14457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -14409,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -14443,7 +14525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -14477,7 +14559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -14511,7 +14593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -14545,7 +14627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -14582,7 +14664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -14616,7 +14698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -14650,7 +14732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -14684,7 +14766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -14718,7 +14800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -14752,7 +14834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -14789,7 +14871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -14823,7 +14905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -14857,7 +14939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -14891,7 +14973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -14925,7 +15007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -14959,7 +15041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -14996,7 +15078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -15030,7 +15112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -15064,7 +15146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -15098,7 +15180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -15132,7 +15214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -15166,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -15203,7 +15285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -15237,7 +15319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -15271,7 +15353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -15305,7 +15387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -15339,7 +15421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -15373,7 +15455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -15410,7 +15492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -15444,7 +15526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -15478,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -15512,7 +15594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -15546,7 +15628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -15580,7 +15662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -15617,7 +15699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -15651,7 +15733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -15685,7 +15767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -15719,7 +15801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -15753,7 +15835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -15787,7 +15869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -15827,7 +15909,7 @@
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -15861,7 +15943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -15895,7 +15977,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -15929,13 +16011,13 @@
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -15955,12 +16037,12 @@
       <selection pane="bottomLeft" activeCell="J64" sqref="J64:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -15978,7 +16060,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -16012,7 +16094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -16042,7 +16124,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -16064,7 +16146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -16086,7 +16168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -16108,7 +16190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -16130,7 +16212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -16152,7 +16234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -16177,7 +16259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -16199,7 +16281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -16221,7 +16303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -16243,7 +16325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -16265,7 +16347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -16287,7 +16369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -16312,7 +16394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -16334,7 +16416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -16356,7 +16438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -16378,7 +16460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -16400,7 +16482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -16422,7 +16504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -16447,7 +16529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -16469,7 +16551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -16491,7 +16573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -16513,7 +16595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -16535,7 +16617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -16557,7 +16639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -16582,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -16604,7 +16686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -16626,7 +16708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -16648,7 +16730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -16670,7 +16752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -16692,7 +16774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -16717,7 +16799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -16739,7 +16821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -16761,7 +16843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -16783,7 +16865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -16805,7 +16887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -16827,7 +16909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -16852,7 +16934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -16874,7 +16956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -16896,7 +16978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -16918,7 +17000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -16940,7 +17022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -16962,7 +17044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -16987,7 +17069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -17009,7 +17091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -17031,7 +17113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -17053,7 +17135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -17075,7 +17157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -17097,7 +17179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -17122,7 +17204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -17144,7 +17226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -17166,7 +17248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -17188,7 +17270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -17210,7 +17292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -17232,7 +17314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -17257,7 +17339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -17279,7 +17361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -17301,7 +17383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -17323,7 +17405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -17345,7 +17427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -17367,7 +17449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -17392,7 +17474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -17426,7 +17508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -17460,7 +17542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -17494,7 +17576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -17528,7 +17610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -17562,7 +17644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -17599,7 +17681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -17633,7 +17715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -17667,7 +17749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -17701,13 +17783,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -17727,12 +17809,12 @@
       <selection pane="bottomLeft" activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -17750,7 +17832,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -17784,7 +17866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -17814,7 +17896,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -17850,7 +17932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -17886,7 +17968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -17922,7 +18004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -17958,7 +18040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -17994,7 +18076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -18033,7 +18115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -18069,7 +18151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -18105,7 +18187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -18141,7 +18223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -18177,7 +18259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -18211,7 +18293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -18253,7 +18335,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -18287,7 +18369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -18323,7 +18405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -18359,7 +18441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -18393,7 +18475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -18427,7 +18509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -18466,7 +18548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -18502,7 +18584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -18536,7 +18618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -18572,7 +18654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -18608,7 +18690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -18644,7 +18726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -18683,7 +18765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -18717,7 +18799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -18751,7 +18833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -18785,7 +18867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -18821,7 +18903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -18857,7 +18939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -18896,7 +18978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -18930,7 +19012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -18964,7 +19046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -18998,7 +19080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -19032,7 +19114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -19066,7 +19148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -19106,7 +19188,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -19140,7 +19222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -19174,7 +19256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -19208,7 +19290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -19242,7 +19324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -19276,7 +19358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -19313,7 +19395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -19347,7 +19429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -19383,7 +19465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -19419,7 +19501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -19455,7 +19537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -19491,7 +19573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -19530,7 +19612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -19566,7 +19648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -19602,7 +19684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -19638,7 +19720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -19674,7 +19756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -19710,7 +19792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -19749,7 +19831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -19785,7 +19867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -19821,7 +19903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -19857,7 +19939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -19893,7 +19975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -19929,7 +20011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -19968,7 +20050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -20004,7 +20086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -20040,7 +20122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -20076,7 +20158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -20112,7 +20194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -20148,7 +20230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -20187,7 +20269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -20223,7 +20305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -20259,7 +20341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -20295,14 +20377,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F73" s="3"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
